--- a/document/osbulkparts/importTemp/物料信息导入模板.xlsx
+++ b/document/osbulkparts/importTemp/物料信息导入模板.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weixin/Desktop/OneDrive/sea/导入模板/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80FF308-8663-6148-8A53-2192E8A09E6A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="460" windowWidth="24860" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19935" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>物料HNR号</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="79">
+  <si>
+    <t>成品型号</t>
+  </si>
+  <si>
+    <t>子件型号</t>
+  </si>
+  <si>
+    <t>物料CKD号</t>
   </si>
   <si>
     <t>物料类别</t>
@@ -34,10 +34,13 @@
     <t>物料英文描述</t>
   </si>
   <si>
+    <t>物料俄文描述</t>
+  </si>
+  <si>
     <t>单位</t>
   </si>
   <si>
-    <t>单价</t>
+    <t>币种</t>
   </si>
   <si>
     <t>换算关系</t>
@@ -46,13 +49,6 @@
     <t>换算后单位</t>
   </si>
   <si>
-    <t>币种</t>
-  </si>
-  <si>
-    <t>物料俄文描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>含税单价</t>
   </si>
   <si>
@@ -74,35 +70,371 @@
     <t>工厂号</t>
   </si>
   <si>
-    <t>成品型号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>子件型号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>0060303898</t>
+  </si>
+  <si>
+    <t>0060303898HNR</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>HRF-342/382Frz黑色玻璃（连衣裙）</t>
+  </si>
+  <si>
+    <t>HRF-342/382FrzBlackGlass(Dress)</t>
+  </si>
+  <si>
+    <t> Циндао синь Бовен (2 из хуандао) </t>
+  </si>
+  <si>
+    <t>EA</t>
+  </si>
+  <si>
+    <t>RMB</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>CHN</t>
+  </si>
+  <si>
+    <t>V12981</t>
+  </si>
+  <si>
+    <t>90C0</t>
+  </si>
+  <si>
+    <t>0064001458HNR</t>
+  </si>
+  <si>
+    <t>低温补偿加热丝</t>
+  </si>
+  <si>
+    <t>DrainHeater</t>
+  </si>
+  <si>
+    <t> Циндао синь Бовен (3 из хуандао) </t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>0060732376HNR</t>
+  </si>
+  <si>
+    <t>冷凝器-无</t>
+  </si>
+  <si>
+    <t>Condensor(HRF-250E)</t>
+  </si>
+  <si>
+    <t> Циндао синь Бовен (4 из хуандао) </t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>0060103495C</t>
+  </si>
+  <si>
+    <t>VCM酒红冷冻门壳板材0.5*509*792</t>
+  </si>
+  <si>
+    <t>Freezerdoorvcmmaroon</t>
+  </si>
+  <si>
+    <t> Циндао синь Бовен (5 из хуандао) </t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>0060220305HNR</t>
+  </si>
+  <si>
+    <t>恒温箱</t>
+  </si>
+  <si>
+    <t>ThermostatBox</t>
+  </si>
+  <si>
+    <t> Циндао синь Бовен (6 из хуандао) </t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>0060221585AHNR</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>冷冻搁物架饰条</t>
+  </si>
+  <si>
+    <t>FrzShelfEndCap</t>
+  </si>
+  <si>
+    <t> Циндао синь Бовен (7 из хуандао) </t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>0060830638HNR</t>
+  </si>
+  <si>
+    <t>新制冰机总成</t>
+  </si>
+  <si>
+    <t>icemachineassembly</t>
+  </si>
+  <si>
+    <t> Циндао синь Бовен (8 из хуандао) </t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>0060845581HNR</t>
+  </si>
+  <si>
+    <t>恒温器组件（恒温器+盖+旋钮+传输盖+LED）</t>
+  </si>
+  <si>
+    <t>ThermostatAssembly(Themostat+Cover+Knob+TransperentCover+LED)</t>
+  </si>
+  <si>
+    <t> Циндао синь Бовен (9 из хуандао) </t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>0069000241HNR</t>
+  </si>
+  <si>
+    <t>灯罩-PS</t>
+  </si>
+  <si>
+    <t>LampCover(HRF-250E)</t>
+  </si>
+  <si>
+    <t> Циндао синь Бовен (10 из хуандао) </t>
+  </si>
+  <si>
+    <t>0060308628HNR</t>
+  </si>
+  <si>
+    <t>RefGlassGlaxyBK398EPB</t>
+  </si>
+  <si>
+    <t> Циндао синь Бовен (11 из хуандао) </t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>0060308628AHNR</t>
+  </si>
+  <si>
+    <t> Циндао синь Бовен (12 из хуандао) </t>
+  </si>
+  <si>
+    <t>12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF4C4C4C"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -111,12 +443,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -124,31 +636,339 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -197,7 +1017,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -230,26 +1050,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -282,23 +1085,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -440,97 +1226,712 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.3333333333333" style="1" customWidth="1"/>
+    <col min="2" max="3" width="16" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.83333333333333" style="1"/>
+    <col min="5" max="5" width="33.6666666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.8333333333333" style="1" customWidth="1"/>
+    <col min="7" max="7" width="33.1666666666667" style="1" customWidth="1"/>
+    <col min="8" max="9" width="5.66666666666667" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.83333333333333" style="1"/>
+    <col min="11" max="11" width="11.1666666666667" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.83333333333333" style="1"/>
+    <col min="13" max="13" width="11.1666666666667" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.83333333333333" style="1"/>
+    <col min="16" max="16" width="11.5" style="1" customWidth="1"/>
+    <col min="17" max="17" width="11.1666666666667" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.83333333333333" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:18">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" ht="16.5" spans="1:18">
+      <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>16</v>
+      <c r="B2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" ht="16.5" spans="1:18">
+      <c r="A3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" ht="16.5" spans="1:18">
+      <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5" spans="1:18">
+      <c r="A5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" ht="16.5" spans="1:18">
+      <c r="A6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" ht="16.5" spans="1:18">
+      <c r="A7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" ht="16.5" spans="1:18">
+      <c r="A8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" ht="16.5" spans="1:18">
+      <c r="A9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" ht="16.5" spans="1:18">
+      <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" ht="16.5" spans="1:18">
+      <c r="A11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" ht="16.5" spans="1:18">
+      <c r="A12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/document/osbulkparts/importTemp/物料信息导入模板.xlsx
+++ b/document/osbulkparts/importTemp/物料信息导入模板.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>成品型号</t>
   </si>
@@ -60,6 +60,9 @@
     <t>物料俄文描述</t>
   </si>
   <si>
+    <t>单耗</t>
+  </si>
+  <si>
     <t>单位</t>
   </si>
   <si>
@@ -90,7 +93,7 @@
     <t>供应商编码</t>
   </si>
   <si>
-    <t>工厂号</t>
+    <t>代理商</t>
   </si>
   <si>
     <t>长</t>
@@ -118,6 +121,9 @@
   </si>
   <si>
     <t> Циндао синь Бовен (2 из хуандао) </t>
+  </si>
+  <si>
+    <t>100.12</t>
   </si>
   <si>
     <t>EA</t>
@@ -159,8 +165,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -184,6 +190,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -192,9 +213,107 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -206,124 +325,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -354,19 +360,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,157 +450,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,6 +576,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -588,8 +620,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,6 +641,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -623,197 +673,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1153,10 +1159,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25" outlineLevelRow="1"/>
@@ -1167,22 +1173,23 @@
     <col min="5" max="5" width="33.6666666666667" style="1" customWidth="1"/>
     <col min="6" max="6" width="26.8333333333333" style="1" customWidth="1"/>
     <col min="7" max="7" width="33.1666666666667" style="1" customWidth="1"/>
-    <col min="8" max="9" width="5.66666666666667" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.83333333333333" style="1"/>
-    <col min="11" max="11" width="11.1666666666667" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.83333333333333" style="1"/>
-    <col min="13" max="13" width="11.1666666666667" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13" style="1" customWidth="1"/>
-    <col min="15" max="15" width="8.83333333333333" style="1"/>
-    <col min="16" max="16" width="11.5" style="1" customWidth="1"/>
-    <col min="17" max="17" width="11.1666666666667" style="1" customWidth="1"/>
-    <col min="18" max="18" width="8.83333333333333" style="1"/>
-    <col min="19" max="19" width="11.5" style="1" customWidth="1"/>
-    <col min="20" max="20" width="11.1666666666667" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="8.83333333333333" style="1"/>
+    <col min="8" max="8" width="9.625" style="1" customWidth="1"/>
+    <col min="9" max="10" width="5.66666666666667" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.83333333333333" style="1"/>
+    <col min="12" max="12" width="11.1666666666667" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.83333333333333" style="1"/>
+    <col min="14" max="14" width="11.1666666666667" style="1" customWidth="1"/>
+    <col min="15" max="15" width="13" style="1" customWidth="1"/>
+    <col min="16" max="16" width="8.83333333333333" style="1"/>
+    <col min="17" max="17" width="11.5" style="1" customWidth="1"/>
+    <col min="18" max="18" width="11.1666666666667" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.83333333333333" style="1"/>
+    <col min="20" max="20" width="11.5" style="1" customWidth="1"/>
+    <col min="21" max="21" width="11.1666666666667" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.83333333333333" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:22">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1246,70 +1253,76 @@
       <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="V1" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" ht="16.5" spans="1:21">
+    <row r="2" ht="16.5" spans="1:22">
       <c r="A2" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="4" t="s">
         <v>29</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
